--- a/excel/config.xlsx
+++ b/excel/config.xlsx
@@ -1,18 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,12 +105,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -117,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,42 +399,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
